--- a/docs/ST3a/ST3a_07.08.24_output.xlsx
+++ b/docs/ST3a/ST3a_07.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2869 +505,3407 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731318094.8630366</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731318099.3865595</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318094.8630366.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318099.3865595.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.84</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>279.98</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.140000000000043</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731318113.2788537</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731318119.9740086</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731318113.2788537.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731318119.9740086.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>127.52</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>128.2</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.6799999999999926</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731318120.0245054</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731318120.3797483</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731318120.0245054.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731318120.3797483.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>128.32</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>128.11</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.2099999999999795</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731318120.8328087</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731318121.1251864</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731318120.8328087.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731318121.1251864.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>127.99</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>128.21</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2200000000000131</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731318131.8762321</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731318137.2295916</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731318131.8762321.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731318137.2295916.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6402.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6434.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>32</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731318150.044199</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731318152.8668268</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731318150.044199.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731318152.8668268.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>495.45</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>498.65</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>3.199999999999989</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731318153.6814425</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731318154.3945343</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731318153.6814425.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731318154.3945343.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>498.15</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>498.8</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.6500000000000341</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731318154.4084969</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731318155.261124</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731318154.4084969.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731318155.261124.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>498.8</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>499.1</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.3000000000000114</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731318161.4942148</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731318161.4942148.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731318161.4942148.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>504.9</v>
       </c>
-      <c r="J11" t="n">
-        <v>504.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="L11" t="n">
+        <v>503.8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-1.099999999999966</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731318164.0405467</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731318167.1033742</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318164.0405467.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318167.1033742.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>223</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>223.3</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.3000000000000114</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731318167.1523542</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731318167.3109071</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318167.1523542.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318167.3109071.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>223.4</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>224.85</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>1.449999999999989</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731318167.706518</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731318174.6021526</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318167.706518.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318174.6021526.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>223.63</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>225.19</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.560000000000002</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731318174.6926732</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731318175.6140542</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318174.6926732.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318175.6140542.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>225.49</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>225.55</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731318175.7050245</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731318178.2401297</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318175.7050245.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318178.2401297.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>225.01</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>226.11</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.100000000000023</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731318179.315489</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731318179.315489.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731318179.315489.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>226.31</v>
       </c>
-      <c r="J17" t="n">
-        <v>226.31</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="L17" t="n">
+        <v>225.97</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.3400000000000034</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731318193.1319685</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731318194.1361158</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731318193.1319685.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731318194.1361158.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1008.8</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1010</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731318194.1530695</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731318194.5183241</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731318194.1530695.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731318194.5183241.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1010</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1009</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731318195.2275214</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731318195.2275214.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731318195.2275214.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1009.6</v>
       </c>
-      <c r="J20" t="n">
-        <v>1009.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="L20" t="n">
+        <v>1011.2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-1.600000000000023</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731318198.2503545</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731318207.4701743</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/CNY1731318198.2503545.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/CNY1731318207.4701743.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>11.855</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>11.914</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.05899999999999928</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731318214.2543375</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731318214.7204695</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/CNY1731318214.2543375.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/CNY1731318214.7204695.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>11.889</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>11.899</v>
       </c>
-      <c r="K22" t="n">
-        <v>0.01000000000000156</v>
+      <c r="M22" t="n">
+        <v>0.009999999999999787</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731318214.735455</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731318214.735455.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731318214.735455.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>11.899</v>
       </c>
-      <c r="J23" t="n">
-        <v>11.899</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
+      <c r="L23" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.001000000000001222</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731318225.8612092</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731318226.2535222</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731318225.8612092.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731318226.2535222.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>123.08</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>122.86</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731318226.2684846</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731318228.0395896</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731318226.2684846.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731318228.0395896.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>122.86</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>123.12</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.2600000000000051</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731318237.4766917</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731318241.714893</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731318237.4766917.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731318241.714893.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>157.98</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>158.7</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.7199999999999989</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731318247.9551952</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731318249.9484868</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731318247.9551952.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731318249.9484868.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>160.1</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>160.76</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.6599999999999966</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731318261.6642997</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731318267.2566667</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731318261.6642997.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731318267.2566667.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>48.61</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>49</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.3900000000000006</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731318271.5111504</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731318284.075541</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731318271.5111504.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731318284.075541.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1358.4</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1378.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-20.19999999999982</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-1.49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731318287.4141493</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731318287.692304</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318287.4141493.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318287.692304.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>59.96</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>59.88</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731318287.7072613</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731318289.077674</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318287.7072613.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318289.077674.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>59.88</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>59.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.0800000000000054</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731318289.0926068</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731318289.950836</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318289.0926068.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318289.950836.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>59.8</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>59.58</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731318297.5646033</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731318298.2412066</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318297.5646033.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318298.2412066.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>60.09</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>60.14</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731318298.2561948</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731318302.0535748</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318298.2561948.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318302.0535748.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>60.14</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>60.7</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.5600000000000023</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731318310.3249986</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731318312.5979502</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318310.3249986.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318312.5979502.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>95.69</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>96.51000000000001</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.8200000000000074</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731318312.6128836</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731318314.2271435</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318312.6128836.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318314.2271435.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>96.51000000000001</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>96.65000000000001</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731318314.243071</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731318323.0185592</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318314.243071.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318323.0185592.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>96.65000000000001</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>98.18000000000001</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-1.530000000000001</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.58</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731318323.0334902</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731318323.0334902.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731318323.0334902.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>98.18000000000001</v>
       </c>
-      <c r="J38" t="n">
-        <v>98.18000000000001</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
+      <c r="L38" t="n">
+        <v>98.11</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.07000000000000739</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731318326.3885195</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731318327.3963282</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318326.3885195.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318327.3963282.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>55.11</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>55.17</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731318327.4132557</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731318334.1449037</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318327.4132557.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318334.1449037.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>55.17</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>55.82</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.6499999999999986</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731318334.9676635</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731318337.7353113</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318334.9676635.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318337.7353113.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>55.88</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>55.98</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731318339.294239</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731318340.033245</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318339.294239.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318340.033245.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>56.02</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>56.33</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.3099999999999952</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731318342.629134</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731318343.5036697</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318342.629134.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318343.5036697.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>141.68</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>141.3</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731318343.5186572</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731318345.038282</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318343.5186572.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318345.038282.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>141.3</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>143.66</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>2.359999999999985</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731318350.146956</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731318351.7966185</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318350.146956.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318351.7966185.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>143.34</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>145.56</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>2.219999999999999</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731318352.3292685</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731318354.5388114</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318352.3292685.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318354.5388114.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>145.62</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>145.2</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.4200000000000159</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731318355.3205183</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731318355.3205183.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731318355.3205183.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>145.4</v>
       </c>
-      <c r="J47" t="n">
-        <v>145.4</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
+      <c r="L47" t="n">
+        <v>145.96</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.5600000000000023</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731318356.7965386</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731318357.9893281</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318356.7965386.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318357.9893281.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>19.73</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>19.56</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731318358.290997</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731318368.0335205</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318358.290997.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318368.0335205.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>19.64</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>19.763</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.1230000000000011</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.63</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731318369.543875</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731318373.955076</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318369.543875.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318373.955076.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>19.819</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>20.248</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.429000000000002</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-2.16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731318374.0516858</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731318374.0516858.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731318374.0516858.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>20.249</v>
       </c>
-      <c r="J51" t="n">
-        <v>20.249</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
+      <c r="L51" t="n">
+        <v>20.265</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.01600000000000179</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731318375.267032</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731318376.9951394</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318375.267032.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318376.9951394.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>668.9</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>664.8</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-4.100000000000023</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.61</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731318377.009105</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731318377.424408</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318377.009105.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318377.424408.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>664.8</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>664.35</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.4499999999999318</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731318377.4393408</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731318378.5103908</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318377.4393408.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318378.5103908.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>664.35</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>663.7</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.6499999999999773</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731318378.594167</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731318382.152807</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318378.594167.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318382.152807.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>663.6</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>666.5</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-2.899999999999977</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731318386.191788</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731318386.497435</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318386.191788.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318386.497435.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>668</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>668.7</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.7000000000000455</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731318410.450326</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731318410.450326.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731318410.450326.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>155.78</v>
       </c>
-      <c r="J57" t="n">
-        <v>155.78</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
+      <c r="L57" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731318411.4909244</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731318412.2041397</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318411.4909244.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318412.2041397.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>0.0955</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>0.09524000000000001</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.0002599999999999963</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731318412.220069</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731318412.6839492</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318412.220069.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318412.6839492.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>0.09524000000000001</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>0.09536000000000001</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.000120000000000009</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731318412.6999366</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731318413.9091659</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318412.6999366.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318413.9091659.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>0.09536000000000001</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>0.09526000000000001</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.0001000000000000029</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731318413.990501</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731318414.8289979</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318413.990501.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318414.8289979.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>0.09520000000000001</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>0.09520000000000001</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3360,286 +3913,340 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731318414.8439589</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731318417.9477766</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318414.8439589.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318417.9477766.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>0.09520000000000001</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>0.09574000000000001</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.0005399999999999988</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731318422.3205109</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731318423.3601398</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318422.3205109.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318423.3601398.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>0.09766000000000001</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>0.09744000000000001</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.000219999999999998</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731318423.3750985</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731318423.5756001</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318423.3750985.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318423.5756001.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>0.09744000000000001</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>0.09736</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>8.000000000001062e-05</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731318423.5905492</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731318423.7973113</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318423.5905492.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318423.7973113.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>0.09736</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>0.09778000000000001</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.0004200000000000037</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731318427.6890578</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731318427.6890578.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731318427.6890578.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>0.0975</v>
       </c>
-      <c r="J66" t="n">
-        <v>0.0975</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
+      <c r="L66" t="n">
+        <v>0.09752</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.999999999999225e-05</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731318437.2795253</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731318439.2701285</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731318437.2795253.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731318439.2701285.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>2889.45</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>2903.75</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>14.30000000000018</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -3653,7 +4260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3677,6 +4284,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3685,11 +4307,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0002200000000000257</v>
+        <v>0.000240000000000018</v>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
+      <c r="D2" t="n">
+        <v>2.666666666666867e-05</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3698,11 +4329,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.75</v>
+        <v>3.409999999999997</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.5683333333333328</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3711,11 +4351,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.539999999999964</v>
+        <v>5.099999999999966</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>1.019999999999993</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3729,6 +4378,15 @@
       <c r="C5" t="n">
         <v>5</v>
       </c>
+      <c r="D5" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3742,6 +4400,15 @@
       <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.05800000000000267</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.4799999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3750,11 +4417,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3820000000000014</v>
+        <v>-0.3659999999999997</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.09149999999999991</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.46</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3763,11 +4439,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.210000000000008</v>
+        <v>-2.280000000000015</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.5700000000000038</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3781,6 +4466,15 @@
       <c r="C9" t="n">
         <v>4</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.2499999999999964</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3789,11 +4483,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.550000000000011</v>
+        <v>2.450000000000045</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.6125000000000114</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3802,11 +4505,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04899999999999771</v>
+        <v>-0.05000000000000071</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.0166666666666669</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3820,6 +4532,15 @@
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.3699999999999951</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3828,11 +4549,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.200000000000045</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.2000000000000076</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3846,6 +4576,15 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.240000000000002</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3859,6 +4598,15 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.04999999999999993</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3872,6 +4620,15 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>1.140000000000043</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3880,11 +4637,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.02000000000001023</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3898,6 +4664,15 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>14.30000000000018</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3911,6 +4686,15 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.3900000000000006</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3924,6 +4708,15 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>32</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3937,6 +4730,15 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>-20.19999999999982</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-1.49</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -3950,6 +4752,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
